--- a/public/upload/noseri/Template Noseri.xlsx
+++ b/public/upload/noseri/Template Noseri.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="301">
   <si>
     <t>No</t>
   </si>
@@ -901,10 +901,28 @@
     <t xml:space="preserve">ZTP80AS-UPGRADE </t>
   </si>
   <si>
-    <t>TEST01</t>
-  </si>
-  <si>
-    <t>TEST02</t>
+    <t>TEST014</t>
+  </si>
+  <si>
+    <t>TEST021</t>
+  </si>
+  <si>
+    <t>TEST033</t>
+  </si>
+  <si>
+    <t>TD1621AA146191</t>
+  </si>
+  <si>
+    <t>TD1621AA147452</t>
+  </si>
+  <si>
+    <t>TD1621AA147263</t>
+  </si>
+  <si>
+    <t>TD1621AA146352</t>
+  </si>
+  <si>
+    <t>TD1621AA146371</t>
   </si>
 </sst>
 </file>
@@ -1255,13 +1273,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1294,6 +1315,72 @@
       </c>
       <c r="C3" t="s">
         <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/public/upload/noseri/Template Noseri.xlsx
+++ b/public/upload/noseri/Template Noseri.xlsx
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
